--- a/results/mp/logistic/corona/confidence/168/desired-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/desired-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="163">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,163 +40,160 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>warned</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>death</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>debt</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>lowest</t>
+  </si>
+  <si>
+    <t>slash</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>death</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>slash</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>selfish</t>
+  </si>
+  <si>
+    <t>recession</t>
   </si>
   <si>
     <t>cancelled</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>saudi</t>
+  </si>
+  <si>
     <t>sick</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>lowest</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>ridiculous</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>fears</t>
+    <t>struggling</t>
   </si>
   <si>
     <t>shame</t>
   </si>
   <si>
-    <t>pressure</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>ref</t>
-  </si>
-  <si>
-    <t>cut</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>affected</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
-    <t>vulnerable</t>
+    <t>fight</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
+    <t>related</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>demand</t>
@@ -205,256 +202,307 @@
     <t>oil</t>
   </si>
   <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
     <t>co</t>
   </si>
   <si>
-    <t>of</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>.</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>shares</t>
+  </si>
+  <si>
+    <t>huge</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>easter</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>yourself</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>your</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>and</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>sharing</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>toronto</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>shares</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>are</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>for</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -812,7 +860,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -820,10 +868,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -902,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -931,13 +979,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -949,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -973,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -981,13 +1029,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9736842105263158</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C5">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -999,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9416666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1023,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1031,37 +1079,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9117647058823529</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L6">
         <v>31</v>
       </c>
-      <c r="D6">
+      <c r="M6">
         <v>31</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K6">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="L6">
-        <v>34</v>
-      </c>
-      <c r="M6">
-        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1081,13 +1129,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.88</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1099,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7">
-        <v>0.9444444444444444</v>
+        <v>0.9375</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1131,13 +1179,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8695652173913043</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1149,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K8">
         <v>0.9333333333333333</v>
@@ -1181,13 +1229,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1199,31 +1247,31 @@
         <v>0</v>
       </c>
       <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9">
+        <v>0.9230769230769231</v>
+      </c>
+      <c r="L9">
+        <v>24</v>
+      </c>
+      <c r="M9">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K9">
-        <v>0.925</v>
-      </c>
-      <c r="L9">
-        <v>111</v>
-      </c>
-      <c r="M9">
-        <v>111</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1231,13 +1279,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8666666666666667</v>
+        <v>0.8321917808219178</v>
       </c>
       <c r="C10">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1249,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K10">
-        <v>0.9230769230769231</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L10">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1273,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1281,13 +1329,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8648648648648649</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1299,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K11">
-        <v>0.9090909090909091</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M11">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1331,13 +1379,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8611111111111112</v>
+        <v>0.8125</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="D12">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1349,19 +1397,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K12">
-        <v>0.8981723237597912</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>344</v>
+        <v>16</v>
       </c>
       <c r="M12">
-        <v>344</v>
+        <v>16</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1373,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>39</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1381,13 +1429,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8527397260273972</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C13">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="D13">
-        <v>249</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1399,19 +1447,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K13">
-        <v>0.8873239436619719</v>
+        <v>0.8839285714285714</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1423,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1431,13 +1479,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8421052631578947</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1449,19 +1497,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K14">
-        <v>0.875</v>
+        <v>0.8772845953002611</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>336</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1473,7 +1521,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>14</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1481,13 +1529,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.8275862068965517</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1499,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K15">
         <v>0.8723404255319149</v>
@@ -1531,13 +1579,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.8</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1549,19 +1597,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.86875</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>139</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1573,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1581,13 +1629,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.775</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1599,19 +1647,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K17">
-        <v>0.8604651162790697</v>
+        <v>0.8679245283018868</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="M17">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1623,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1631,13 +1679,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7647058823529411</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1649,19 +1697,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K18">
-        <v>0.859375</v>
+        <v>0.8671875</v>
       </c>
       <c r="L18">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M18">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1673,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1681,13 +1729,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7368421052631579</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1699,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K19">
-        <v>0.85625</v>
+        <v>0.8661971830985915</v>
       </c>
       <c r="L19">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="M19">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1723,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1731,13 +1779,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.7333333333333333</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C20">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D20">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1749,19 +1797,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K20">
-        <v>0.8536585365853658</v>
+        <v>0.8658536585365854</v>
       </c>
       <c r="L20">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M20">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1773,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1781,38 +1829,38 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.7307692307692307</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21">
+        <v>0.8636363636363636</v>
+      </c>
+      <c r="L21">
         <v>19</v>
       </c>
-      <c r="D21">
+      <c r="M21">
         <v>19</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>7</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="K21">
-        <v>0.8490566037735849</v>
-      </c>
-      <c r="L21">
-        <v>90</v>
-      </c>
-      <c r="M21">
-        <v>90</v>
-      </c>
       <c r="N21">
         <v>1</v>
       </c>
@@ -1823,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1831,13 +1879,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6976744186046512</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C22">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="D22">
-        <v>360</v>
+        <v>19</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1849,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>156</v>
+        <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K22">
-        <v>0.8448275862068966</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M22">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1873,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1881,13 +1929,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6956521739130435</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1899,19 +1947,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K23">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1923,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1931,13 +1979,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="C24">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D24">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1949,19 +1997,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K24">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1973,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1981,13 +2029,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.6875</v>
+        <v>0.7</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1999,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K25">
         <v>0.8214285714285714</v>
@@ -2031,13 +2079,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.6774193548387096</v>
+        <v>0.6957364341085271</v>
       </c>
       <c r="C26">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="D26">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2049,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>157</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K26">
-        <v>0.8214285714285714</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2081,13 +2129,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.671957671957672</v>
+        <v>0.68</v>
       </c>
       <c r="C27">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2099,19 +2147,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K27">
-        <v>0.8205128205128205</v>
+        <v>0.8095238095238095</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="M27">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2123,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2131,13 +2179,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.6666666666666666</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="C28">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2149,19 +2197,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K28">
-        <v>0.8125</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2173,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2181,13 +2229,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.6610169491525424</v>
+        <v>0.6375838926174496</v>
       </c>
       <c r="C29">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="D29">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2199,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K29">
-        <v>0.8</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L29">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2223,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2231,13 +2279,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.6521739130434783</v>
+        <v>0.6349206349206349</v>
       </c>
       <c r="C30">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>120</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2249,19 +2297,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K30">
-        <v>0.7936507936507936</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L30">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2273,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2281,13 +2329,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.65</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C31">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>220</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2299,19 +2347,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>140</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K31">
-        <v>0.7916666666666666</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L31">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M31">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2323,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2331,13 +2379,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.6410256410256411</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2349,19 +2397,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K32">
-        <v>0.7708333333333334</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L32">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="M32">
-        <v>37</v>
+        <v>258</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2373,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2381,7 +2429,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C33">
         <v>14</v>
@@ -2399,31 +2447,31 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K33">
+        <v>0.7575757575757576</v>
+      </c>
+      <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>8</v>
-      </c>
-      <c r="J33" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="K33">
-        <v>0.7617647058823529</v>
-      </c>
-      <c r="L33">
-        <v>259</v>
-      </c>
-      <c r="M33">
-        <v>259</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2431,13 +2479,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.6174496644295302</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="C34">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2449,19 +2497,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K34">
-        <v>0.75</v>
+        <v>0.7312925170068028</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2470,10 +2518,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34">
-        <v>6</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2481,13 +2529,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.6153846153846154</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2499,19 +2547,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K35">
-        <v>0.7407407407407407</v>
+        <v>0.72</v>
       </c>
       <c r="L35">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2523,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2531,13 +2579,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.6078431372549019</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C36">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D36">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2549,19 +2597,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K36">
-        <v>0.7391304347826086</v>
+        <v>0.7154811715481172</v>
       </c>
       <c r="L36">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="M36">
-        <v>17</v>
+        <v>171</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2573,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>6</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2581,13 +2629,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.5945945945945946</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C37">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2599,19 +2647,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K37">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2623,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2631,13 +2679,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.5925925925925926</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2649,19 +2697,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K38">
-        <v>0.7142857142857143</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L38">
-        <v>210</v>
+        <v>67</v>
       </c>
       <c r="M38">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2670,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="P38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>84</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2681,13 +2729,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.5818181818181818</v>
+        <v>0.52</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D39">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2699,19 +2747,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K39">
-        <v>0.7076923076923077</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="L39">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2723,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2731,13 +2779,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.5805555555555556</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C40">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="D40">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2749,19 +2797,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>151</v>
+        <v>13</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K40">
-        <v>0.7058823529411765</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L40">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="M40">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2773,7 +2821,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2781,37 +2829,37 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.5769230769230769</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>16</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
         <v>15</v>
       </c>
-      <c r="D41">
+      <c r="J41" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K41">
+        <v>0.6818181818181818</v>
+      </c>
+      <c r="L41">
         <v>15</v>
       </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>11</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="K41">
-        <v>0.7037037037037037</v>
-      </c>
-      <c r="L41">
-        <v>19</v>
-      </c>
       <c r="M41">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2823,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2831,13 +2879,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.5666666666666667</v>
+        <v>0.509090909090909</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D42">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2849,19 +2897,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="K42">
-        <v>0.698744769874477</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L42">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="M42">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2873,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>72</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2881,13 +2929,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.5555555555555556</v>
+        <v>0.5</v>
       </c>
       <c r="C43">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2899,19 +2947,19 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K43">
-        <v>0.6857142857142857</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2923,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2931,13 +2979,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.509090909090909</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C44">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D44">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2949,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K44">
-        <v>0.6842105263157895</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2973,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2981,13 +3029,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2999,19 +3047,19 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="K45">
-        <v>0.68</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L45">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -3023,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -3031,13 +3079,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.5</v>
+        <v>0.46875</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3049,19 +3097,19 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K46">
-        <v>0.6785714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L46">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="M46">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3073,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3081,13 +3129,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C47">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D47">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3099,19 +3147,19 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K47">
-        <v>0.6666666666666666</v>
+        <v>0.65</v>
       </c>
       <c r="L47">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3123,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3131,13 +3179,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.4933333333333333</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C48">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D48">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3149,19 +3197,19 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K48">
-        <v>0.6666666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3173,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -3181,13 +3229,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.4838709677419355</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="C49">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D49">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3199,19 +3247,19 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K49">
-        <v>0.6629213483146067</v>
+        <v>0.6461538461538462</v>
       </c>
       <c r="L49">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="M49">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -3223,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -3231,13 +3279,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.4516129032258064</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C50">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3249,19 +3297,19 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>17</v>
+        <v>168</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K50">
-        <v>0.6285714285714286</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L50">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M50">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3273,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3281,13 +3329,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.4</v>
+        <v>0.3125</v>
       </c>
       <c r="C51">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D51">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -3299,19 +3347,19 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="K51">
-        <v>0.6276595744680851</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L51">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -3323,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>35</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3331,13 +3379,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.3571428571428572</v>
+        <v>0.3116883116883117</v>
       </c>
       <c r="C52">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="D52">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3349,10 +3397,10 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>162</v>
+        <v>53</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K52">
         <v>0.625</v>
@@ -3381,13 +3429,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.35</v>
+        <v>0.3023255813953488</v>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D53">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3399,10 +3447,10 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K53">
         <v>0.6190476190476191</v>
@@ -3431,13 +3479,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.3376623376623377</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="C54">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D54">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -3449,19 +3497,19 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K54">
-        <v>0.6</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L54">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M54">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -3473,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3481,13 +3529,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.2125</v>
+        <v>0.2144772117962467</v>
       </c>
       <c r="C55">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D55">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -3499,19 +3547,19 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>63</v>
+        <v>293</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K55">
-        <v>0.5952380952380952</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3523,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3531,13 +3579,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.2091152815013405</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C56">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="D56">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -3549,19 +3597,19 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>295</v>
+        <v>266</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="K56">
-        <v>0.5806451612903226</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="L56">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="M56">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -3573,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -3581,13 +3629,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1166666666666667</v>
+        <v>0.05460750853242321</v>
       </c>
       <c r="C57">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D57">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3599,19 +3647,19 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K57">
-        <v>0.5769230769230769</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M57">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3623,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -3631,37 +3679,37 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01722652885443583</v>
+        <v>0.0256</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>1141</v>
+        <v>609</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K58">
-        <v>0.5652173913043478</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M58">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -3673,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -3681,37 +3729,37 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.01225411157691067</v>
+        <v>0.015625</v>
       </c>
       <c r="C59">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D59">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E59">
-        <v>0.14</v>
+        <v>0.23</v>
       </c>
       <c r="F59">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>3063</v>
+        <v>2331</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K59">
-        <v>0.5616438356164384</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="L59">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="M59">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3723,7 +3771,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>32</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -3731,49 +3779,49 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.01093815734118637</v>
+        <v>0.01351351351351351</v>
       </c>
       <c r="C60">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D60">
+        <v>48</v>
+      </c>
+      <c r="E60">
+        <v>0.65</v>
+      </c>
+      <c r="F60">
+        <v>0.35</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60">
+        <v>1241</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K60">
+        <v>0.5409836065573771</v>
+      </c>
+      <c r="L60">
+        <v>33</v>
+      </c>
+      <c r="M60">
+        <v>33</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60">
+        <v>0</v>
+      </c>
+      <c r="P60" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q60">
         <v>28</v>
-      </c>
-      <c r="E60">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="F60">
-        <v>0.9299999999999999</v>
-      </c>
-      <c r="G60" t="b">
-        <v>1</v>
-      </c>
-      <c r="H60">
-        <v>2351</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="K60">
-        <v>0.5</v>
-      </c>
-      <c r="L60">
-        <v>14</v>
-      </c>
-      <c r="M60">
-        <v>14</v>
-      </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q60">
-        <v>14</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -3781,37 +3829,37 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.009859154929577466</v>
+        <v>0.01293103448275862</v>
       </c>
       <c r="C61">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E61">
-        <v>0.38</v>
+        <v>0.06</v>
       </c>
       <c r="F61">
-        <v>0.62</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>2109</v>
+        <v>1145</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K61">
-        <v>0.5</v>
+        <v>0.5068493150684932</v>
       </c>
       <c r="L61">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M61">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3823,7 +3871,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -3831,37 +3879,37 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.008250108554059922</v>
+        <v>0.01192394456977119</v>
       </c>
       <c r="C62">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E62">
-        <v>0.24</v>
+        <v>0.1</v>
       </c>
       <c r="F62">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="G62" t="b">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>2284</v>
+        <v>3066</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K62">
-        <v>0.5</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="L62">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="M62">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3873,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -3881,37 +3929,37 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.007052186177715092</v>
+        <v>0.01078799249530957</v>
       </c>
       <c r="C63">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D63">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="E63">
-        <v>0.49</v>
+        <v>0.32</v>
       </c>
       <c r="F63">
-        <v>0.51</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>4928</v>
+        <v>2109</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K63">
-        <v>0.5</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M63">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3923,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -3931,49 +3979,49 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.005679666792881484</v>
+        <v>0.00827165868524162</v>
       </c>
       <c r="C64">
+        <v>19</v>
+      </c>
+      <c r="D64">
+        <v>31</v>
+      </c>
+      <c r="E64">
+        <v>0.39</v>
+      </c>
+      <c r="F64">
+        <v>0.61</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>2278</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K64">
+        <v>0.4642857142857143</v>
+      </c>
+      <c r="L64">
+        <v>13</v>
+      </c>
+      <c r="M64">
+        <v>13</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q64">
         <v>15</v>
-      </c>
-      <c r="D64">
-        <v>47</v>
-      </c>
-      <c r="E64">
-        <v>0.68</v>
-      </c>
-      <c r="F64">
-        <v>0.32</v>
-      </c>
-      <c r="G64" t="b">
-        <v>1</v>
-      </c>
-      <c r="H64">
-        <v>2626</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="K64">
-        <v>0.4406779661016949</v>
-      </c>
-      <c r="L64">
-        <v>26</v>
-      </c>
-      <c r="M64">
-        <v>26</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -3981,37 +4029,37 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.004864759680871765</v>
+        <v>0.007591979754720654</v>
       </c>
       <c r="C65">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D65">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="E65">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="F65">
-        <v>0.49</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G65" t="b">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>5114</v>
+        <v>5098</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="K65">
-        <v>0.4035087719298245</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -4023,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -4031,57 +4079,81 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003255813953488372</v>
+        <v>0.005832944470368642</v>
       </c>
       <c r="C66">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D66">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="E66">
+        <v>0.63</v>
+      </c>
+      <c r="F66">
+        <v>0.37</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>4261</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="K66">
+        <v>0.453125</v>
+      </c>
+      <c r="L66">
+        <v>29</v>
+      </c>
+      <c r="M66">
+        <v>29</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.0053678560151563</v>
+      </c>
+      <c r="C67">
+        <v>17</v>
+      </c>
+      <c r="D67">
+        <v>51</v>
+      </c>
+      <c r="E67">
         <v>0.67</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <v>0.33</v>
       </c>
-      <c r="G66" t="b">
-        <v>1</v>
-      </c>
-      <c r="H66">
-        <v>4286</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="K66">
-        <v>0.3442622950819672</v>
-      </c>
-      <c r="L66">
-        <v>21</v>
-      </c>
-      <c r="M66">
-        <v>21</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>3150</v>
+      </c>
       <c r="J67" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K67">
-        <v>0.325</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L67">
         <v>13</v>
@@ -4099,21 +4171,45 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:17">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.005235602094240838</v>
+      </c>
+      <c r="C68">
+        <v>26</v>
+      </c>
+      <c r="D68">
+        <v>56</v>
+      </c>
+      <c r="E68">
+        <v>0.54</v>
+      </c>
+      <c r="F68">
+        <v>0.46</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>4940</v>
+      </c>
       <c r="J68" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K68">
-        <v>0.25</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L68">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M68">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -4125,15 +4221,15 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="J69" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K69">
-        <v>0.1857142857142857</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L69">
         <v>13</v>
@@ -4151,21 +4247,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>57</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="J70" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K70">
-        <v>0.1834862385321101</v>
+        <v>0.35</v>
       </c>
       <c r="L70">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M70">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -4177,293 +4273,657 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="J71" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K71">
-        <v>0.02919099249374479</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L71">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="M71">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="N71">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1164</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="J72" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K72">
-        <v>0.0124804992199688</v>
+        <v>0.2954545454545455</v>
       </c>
       <c r="L72">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M72">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N72">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1266</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="J73" s="1" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
       <c r="K73">
-        <v>0.01203912716328066</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L73">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="M73">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N73">
-        <v>0.68</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>2626</v>
+        <v>58</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="J74" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="K74">
-        <v>0.01072555205047319</v>
+        <v>0.1857142857142857</v>
       </c>
       <c r="L74">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M74">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="N74">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>1568</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="J75" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K75">
-        <v>0.01003344481605351</v>
+        <v>0.1854838709677419</v>
       </c>
       <c r="L75">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N75">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>2368</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="J76" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K76">
-        <v>0.009027492819039803</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M76">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="N76">
-        <v>0.73</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O76">
-        <v>0.27</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>2415</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="J77" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K77">
-        <v>0.00877742946708464</v>
+        <v>0.1</v>
       </c>
       <c r="L77">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="M77">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N77">
-        <v>0.72</v>
+        <v>0.93</v>
       </c>
       <c r="O77">
-        <v>0.28</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>3162</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="J78" s="1" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="K78">
-        <v>0.006651884700665188</v>
+        <v>0.0979020979020979</v>
       </c>
       <c r="L78">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="M78">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="N78">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>4928</v>
+        <v>129</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="J79" s="1" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="K79">
-        <v>0.006490496059341678</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L79">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M79">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="N79">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>4286</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="J80" s="1" t="s">
-        <v>66</v>
+        <v>152</v>
       </c>
       <c r="K80">
-        <v>0.006126295947219604</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L80">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="M80">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="N80">
-        <v>0.38</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O80">
-        <v>0.62</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>2109</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K81">
+        <v>0.0872093023255814</v>
+      </c>
+      <c r="L81">
+        <v>15</v>
+      </c>
+      <c r="M81">
+        <v>15</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K82">
+        <v>0.06188925081433225</v>
+      </c>
+      <c r="L82">
+        <v>19</v>
+      </c>
+      <c r="M82">
+        <v>20</v>
+      </c>
+      <c r="N82">
+        <v>0.95</v>
+      </c>
+      <c r="O82">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="K83">
+        <v>0.06108786610878661</v>
+      </c>
+      <c r="L83">
+        <v>73</v>
+      </c>
+      <c r="M83">
+        <v>78</v>
+      </c>
+      <c r="N83">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O83">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K84">
+        <v>0.05484460694698354</v>
+      </c>
+      <c r="L84">
+        <v>30</v>
+      </c>
+      <c r="M84">
+        <v>30</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K85">
+        <v>0.04086538461538462</v>
+      </c>
+      <c r="L85">
+        <v>17</v>
+      </c>
+      <c r="M85">
+        <v>17</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K86">
+        <v>0.02437106918238994</v>
+      </c>
+      <c r="L86">
+        <v>31</v>
+      </c>
+      <c r="M86">
+        <v>48</v>
+      </c>
+      <c r="N86">
+        <v>0.65</v>
+      </c>
+      <c r="O86">
+        <v>0.35</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K87">
+        <v>0.01352657004830918</v>
+      </c>
+      <c r="L87">
+        <v>14</v>
+      </c>
+      <c r="M87">
+        <v>19</v>
+      </c>
+      <c r="N87">
+        <v>0.74</v>
+      </c>
+      <c r="O87">
+        <v>0.26</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K88">
+        <v>0.01126972201352367</v>
+      </c>
+      <c r="L88">
+        <v>30</v>
+      </c>
+      <c r="M88">
+        <v>41</v>
+      </c>
+      <c r="N88">
+        <v>0.73</v>
+      </c>
+      <c r="O88">
+        <v>0.27</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K89">
+        <v>0.01067839195979899</v>
+      </c>
+      <c r="L89">
+        <v>34</v>
+      </c>
+      <c r="M89">
+        <v>51</v>
+      </c>
+      <c r="N89">
+        <v>0.67</v>
+      </c>
+      <c r="O89">
+        <v>0.33</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="90" spans="10:17">
+      <c r="J90" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K90">
+        <v>0.01002925198495612</v>
+      </c>
+      <c r="L90">
+        <v>24</v>
+      </c>
+      <c r="M90">
+        <v>25</v>
+      </c>
+      <c r="N90">
+        <v>0.96</v>
+      </c>
+      <c r="O90">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P90" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q90">
+        <v>2369</v>
+      </c>
+    </row>
+    <row r="91" spans="10:17">
+      <c r="J91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K91">
+        <v>0.009760632117127585</v>
+      </c>
+      <c r="L91">
+        <v>42</v>
+      </c>
+      <c r="M91">
+        <v>67</v>
+      </c>
+      <c r="N91">
+        <v>0.63</v>
+      </c>
+      <c r="O91">
+        <v>0.37</v>
+      </c>
+      <c r="P91" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q91">
+        <v>4261</v>
+      </c>
+    </row>
+    <row r="92" spans="10:17">
+      <c r="J92" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K92">
+        <v>0.009449465899753493</v>
+      </c>
+      <c r="L92">
+        <v>23</v>
+      </c>
+      <c r="M92">
+        <v>34</v>
+      </c>
+      <c r="N92">
+        <v>0.68</v>
+      </c>
+      <c r="O92">
+        <v>0.32</v>
+      </c>
+      <c r="P92" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q92">
+        <v>2411</v>
+      </c>
+    </row>
+    <row r="93" spans="10:17">
+      <c r="J93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K93">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="L93">
+        <v>13</v>
+      </c>
+      <c r="M93">
+        <v>21</v>
+      </c>
+      <c r="N93">
+        <v>0.62</v>
+      </c>
+      <c r="O93">
+        <v>0.38</v>
+      </c>
+      <c r="P93" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q93">
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="94" spans="10:17">
+      <c r="J94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K94">
+        <v>0.006036217303822937</v>
+      </c>
+      <c r="L94">
+        <v>30</v>
+      </c>
+      <c r="M94">
+        <v>56</v>
+      </c>
+      <c r="N94">
+        <v>0.54</v>
+      </c>
+      <c r="O94">
+        <v>0.46</v>
+      </c>
+      <c r="P94" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q94">
+        <v>4940</v>
+      </c>
+    </row>
+    <row r="95" spans="10:17">
+      <c r="J95" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K81">
-        <v>0.005058365758754864</v>
-      </c>
-      <c r="L81">
-        <v>26</v>
-      </c>
-      <c r="M81">
-        <v>51</v>
-      </c>
-      <c r="N81">
-        <v>0.51</v>
-      </c>
-      <c r="O81">
-        <v>0.49</v>
-      </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>5114</v>
+      <c r="K95">
+        <v>0.005462348809988295</v>
+      </c>
+      <c r="L95">
+        <v>28</v>
+      </c>
+      <c r="M95">
+        <v>67</v>
+      </c>
+      <c r="N95">
+        <v>0.42</v>
+      </c>
+      <c r="O95">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="P95" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>5098</v>
       </c>
     </row>
   </sheetData>
